--- a/data_processed/20250703/BTCUSDVOLSURFACE_REGULARIZED_20250703.xlsx
+++ b/data_processed/20250703/BTCUSDVOLSURFACE_REGULARIZED_20250703.xlsx
@@ -12411,7 +12411,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18471,7 +18471,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18587,7 +18587,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -43305,7 +43305,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -43508,7 +43508,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44642,7 +44642,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -45419,7 +45419,7 @@
       </c>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46354,7 +46354,7 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46524,7 +46524,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -46553,7 +46553,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -48598,7 +48598,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -48627,7 +48627,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48826,7 +48826,7 @@
       </c>
       <c r="G1877" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250703/BTCUSDVOLSURFACE_REGULARIZED_20250703.xlsx
+++ b/data_processed/20250703/BTCUSDVOLSURFACE_REGULARIZED_20250703.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12469,7 +12469,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18413,7 +18413,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18529,7 +18529,7 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18616,7 +18616,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42677,7 +42677,7 @@
       </c>
       <c r="G1648" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43276,7 +43276,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43334,7 +43334,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44186,7 +44186,7 @@
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44360,7 +44360,7 @@
       </c>
       <c r="G1711" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44418,7 +44418,7 @@
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44476,7 +44476,7 @@
       </c>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44505,7 +44505,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44642,7 +44642,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -44671,7 +44671,7 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45303,7 +45303,7 @@
       </c>
       <c r="G1746" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45390,7 +45390,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45498,7 +45498,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45527,7 +45527,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45639,7 +45639,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46267,7 +46267,7 @@
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46296,7 +46296,7 @@
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46524,7 +46524,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -46553,7 +46553,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -46582,7 +46582,7 @@
       </c>
       <c r="G1793" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46694,7 +46694,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46723,7 +46723,7 @@
       </c>
       <c r="G1798" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46752,7 +46752,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46781,7 +46781,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47121,7 +47121,7 @@
       </c>
       <c r="G1812" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47150,7 +47150,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -48403,7 +48403,7 @@
       </c>
       <c r="G1862" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -48569,7 +48569,7 @@
       </c>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -48598,7 +48598,7 @@
       </c>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -48768,7 +48768,7 @@
       </c>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51004,7 +51004,7 @@
       </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51033,7 +51033,7 @@
       </c>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51091,7 +51091,7 @@
       </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51195,7 +51195,7 @@
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -53390,7 +53390,7 @@
       </c>
       <c r="G2057" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53560,7 +53560,7 @@
       </c>
       <c r="G2063" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -54322,7 +54322,7 @@
       </c>
       <c r="G2093" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -54980,7 +54980,7 @@
       </c>
       <c r="G2119" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
